--- a/data-raw/rkkp/2023-02-03_Variabeloversigt_DVDD.xlsx
+++ b/data-raw/rkkp/2023-02-03_Variabeloversigt_DVDD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="326">
   <si>
     <t xml:space="preserve">Variabeloversigt for  Dansk Voksen Diabetes Database </t>
   </si>
@@ -1254,8 +1254,8 @@
   </sheetPr>
   <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>11</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>11</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>11</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="27" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>11</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="28" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>11</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>11</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>11</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>11</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>11</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="72" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>11</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="73" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>11</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="78" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>11</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="79" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>11</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="80" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>11</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="81" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>11</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="83" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>11</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="84" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>11</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="87" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>11</v>
@@ -4010,9 +4010,7 @@
       <c r="J94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
         <v>11</v>
       </c>
@@ -4191,7 +4189,7 @@
     </row>
     <row r="101" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>11</v>
@@ -4311,7 +4309,7 @@
     </row>
     <row r="105" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>324</v>
@@ -4519,7 +4517,7 @@
     </row>
     <row r="112" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>324</v>
@@ -4549,7 +4547,7 @@
     </row>
     <row r="113" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>324</v>
@@ -4579,7 +4577,7 @@
     </row>
     <row r="114" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>324</v>
@@ -4609,7 +4607,7 @@
     </row>
     <row r="115" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>324</v>
@@ -4639,7 +4637,7 @@
     </row>
     <row r="116" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>324</v>
@@ -4789,7 +4787,7 @@
     </row>
     <row r="121" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>324</v>
@@ -4819,7 +4817,7 @@
     </row>
     <row r="122" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>324</v>
@@ -4969,7 +4967,7 @@
     </row>
     <row r="127" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>324</v>
@@ -5419,7 +5417,7 @@
     </row>
     <row r="142" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>324</v>
@@ -5809,7 +5807,7 @@
     </row>
     <row r="155" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>324</v>
@@ -5959,7 +5957,7 @@
     </row>
     <row r="160" customFormat="false" ht="87.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>324</v>
@@ -5989,7 +5987,7 @@
     </row>
     <row r="161" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>324</v>
@@ -6139,7 +6137,7 @@
     </row>
     <row r="166" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>324</v>
@@ -6169,7 +6167,7 @@
     </row>
     <row r="167" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>324</v>
@@ -6199,7 +6197,7 @@
     </row>
     <row r="168" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>324</v>
@@ -6229,7 +6227,7 @@
     </row>
     <row r="169" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>324</v>
@@ -6289,7 +6287,7 @@
     </row>
     <row r="171" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>324</v>
@@ -6319,7 +6317,7 @@
     </row>
     <row r="172" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>324</v>
@@ -6409,7 +6407,7 @@
     </row>
     <row r="175" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>324</v>
@@ -6499,7 +6497,7 @@
     </row>
     <row r="178" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>324</v>
@@ -6709,7 +6707,7 @@
     </row>
     <row r="185" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>324</v>
@@ -6829,7 +6827,7 @@
     </row>
     <row r="189" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>324</v>
@@ -6859,7 +6857,7 @@
     </row>
     <row r="190" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>324</v>
